--- a/Solved.xlsx
+++ b/Solved.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020year\Code\Project_Rosalind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_projects\Project_Rosalind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FEDA34-70F7-4C96-A350-C8FF550FF7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>C++ solution</t>
   </si>
@@ -61,12 +60,24 @@
   </si>
   <si>
     <t>IPRB</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>REVP</t>
+  </si>
+  <si>
+    <t>IEV</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,11 +388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,15 +400,18 @@
     <col min="2" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -405,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -413,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -421,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -429,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -437,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -445,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -453,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -461,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -469,32 +483,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>

--- a/Solved.xlsx
+++ b/Solved.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>C++ solution</t>
   </si>
@@ -72,14 +72,25 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>SPLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +404,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,13 +413,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -505,8 +517,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,5 +766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>